--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1161.058056035456</v>
+        <v>1493.766294000814</v>
       </c>
       <c r="AB2" t="n">
-        <v>1588.610854534057</v>
+        <v>2043.836943769795</v>
       </c>
       <c r="AC2" t="n">
-        <v>1436.996064206664</v>
+        <v>1848.776014399571</v>
       </c>
       <c r="AD2" t="n">
-        <v>1161058.056035456</v>
+        <v>1493766.294000814</v>
       </c>
       <c r="AE2" t="n">
-        <v>1588610.854534057</v>
+        <v>2043836.943769794</v>
       </c>
       <c r="AF2" t="n">
         <v>2.339482255519126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1436996.064206664</v>
+        <v>1848776.014399571</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>858.1998007481781</v>
+        <v>1122.354224402317</v>
       </c>
       <c r="AB3" t="n">
-        <v>1174.226828486764</v>
+        <v>1535.654564601055</v>
       </c>
       <c r="AC3" t="n">
-        <v>1062.160268013691</v>
+        <v>1389.093848260247</v>
       </c>
       <c r="AD3" t="n">
-        <v>858199.800748178</v>
+        <v>1122354.224402317</v>
       </c>
       <c r="AE3" t="n">
-        <v>1174226.828486764</v>
+        <v>1535654.564601054</v>
       </c>
       <c r="AF3" t="n">
         <v>2.989790459065289e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1062160.268013691</v>
+        <v>1389093.848260247</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>778.4922551415395</v>
+        <v>1023.069636254982</v>
       </c>
       <c r="AB4" t="n">
-        <v>1065.167448139028</v>
+        <v>1399.809010970975</v>
       </c>
       <c r="AC4" t="n">
-        <v>963.5093618605409</v>
+        <v>1266.21320360819</v>
       </c>
       <c r="AD4" t="n">
-        <v>778492.2551415395</v>
+        <v>1023069.636254982</v>
       </c>
       <c r="AE4" t="n">
-        <v>1065167.448139028</v>
+        <v>1399809.010970975</v>
       </c>
       <c r="AF4" t="n">
         <v>3.237136600617972e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.48958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>963509.3618605409</v>
+        <v>1266213.20360819</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>737.1540074281985</v>
+        <v>971.9428672712928</v>
       </c>
       <c r="AB5" t="n">
-        <v>1008.606633902857</v>
+        <v>1329.855110093633</v>
       </c>
       <c r="AC5" t="n">
-        <v>912.3466323514689</v>
+        <v>1202.935604849665</v>
       </c>
       <c r="AD5" t="n">
-        <v>737154.0074281985</v>
+        <v>971942.8672712928</v>
       </c>
       <c r="AE5" t="n">
-        <v>1008606.633902857</v>
+        <v>1329855.110093633</v>
       </c>
       <c r="AF5" t="n">
         <v>3.377202982920222e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>912346.6323514689</v>
+        <v>1202935.604849665</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>714.9023534243845</v>
+        <v>939.9368574159113</v>
       </c>
       <c r="AB6" t="n">
-        <v>978.1609392211471</v>
+        <v>1286.063075404</v>
       </c>
       <c r="AC6" t="n">
-        <v>884.8066320393806</v>
+        <v>1163.323020488304</v>
       </c>
       <c r="AD6" t="n">
-        <v>714902.3534243845</v>
+        <v>939936.8574159113</v>
       </c>
       <c r="AE6" t="n">
-        <v>978160.9392211471</v>
+        <v>1286063.075404</v>
       </c>
       <c r="AF6" t="n">
         <v>3.456336872749333e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.41666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>884806.6320393806</v>
+        <v>1163323.020488304</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>695.2794243784339</v>
+        <v>920.3812481776652</v>
       </c>
       <c r="AB7" t="n">
-        <v>951.3119819979461</v>
+        <v>1259.30622811164</v>
       </c>
       <c r="AC7" t="n">
-        <v>860.5201016108138</v>
+        <v>1139.119809148056</v>
       </c>
       <c r="AD7" t="n">
-        <v>695279.4243784338</v>
+        <v>920381.2481776652</v>
       </c>
       <c r="AE7" t="n">
-        <v>951311.981997946</v>
+        <v>1259306.22811164</v>
       </c>
       <c r="AF7" t="n">
         <v>3.512086185842957e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>860520.1016108138</v>
+        <v>1139119.809148056</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>686.3854620385341</v>
+        <v>901.6656101784934</v>
       </c>
       <c r="AB8" t="n">
-        <v>939.1428703505691</v>
+        <v>1233.698666525498</v>
       </c>
       <c r="AC8" t="n">
-        <v>849.512392899607</v>
+        <v>1115.956197299257</v>
       </c>
       <c r="AD8" t="n">
-        <v>686385.4620385341</v>
+        <v>901665.6101784933</v>
       </c>
       <c r="AE8" t="n">
-        <v>939142.870350569</v>
+        <v>1233698.666525498</v>
       </c>
       <c r="AF8" t="n">
         <v>3.563435823416759e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.03645833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>849512.392899607</v>
+        <v>1115956.197299257</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>670.8882557118925</v>
+        <v>895.9559140923431</v>
       </c>
       <c r="AB9" t="n">
-        <v>917.9389089659674</v>
+        <v>1225.886408446413</v>
       </c>
       <c r="AC9" t="n">
-        <v>830.3321078296049</v>
+        <v>1108.889530166667</v>
       </c>
       <c r="AD9" t="n">
-        <v>670888.2557118925</v>
+        <v>895955.9140923431</v>
       </c>
       <c r="AE9" t="n">
-        <v>917938.9089659674</v>
+        <v>1225886.408446413</v>
       </c>
       <c r="AF9" t="n">
         <v>3.584289079990158e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.80208333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>830332.1078296049</v>
+        <v>1108889.530166667</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>663.3757787858771</v>
+        <v>878.6217615070555</v>
       </c>
       <c r="AB10" t="n">
-        <v>907.6600066087019</v>
+        <v>1202.169056150383</v>
       </c>
       <c r="AC10" t="n">
-        <v>821.0342094867867</v>
+        <v>1087.435728686257</v>
       </c>
       <c r="AD10" t="n">
-        <v>663375.778785877</v>
+        <v>878621.7615070555</v>
       </c>
       <c r="AE10" t="n">
-        <v>907660.0066087019</v>
+        <v>1202169.056150383</v>
       </c>
       <c r="AF10" t="n">
         <v>3.615749773433262e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.41145833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>821034.2094867867</v>
+        <v>1087435.728686257</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>657.0531540018187</v>
+        <v>872.2991367229973</v>
       </c>
       <c r="AB11" t="n">
-        <v>899.0091124446341</v>
+        <v>1193.518161986315</v>
       </c>
       <c r="AC11" t="n">
-        <v>813.2089445201315</v>
+        <v>1079.610463719602</v>
       </c>
       <c r="AD11" t="n">
-        <v>657053.1540018187</v>
+        <v>872299.1367229973</v>
       </c>
       <c r="AE11" t="n">
-        <v>899009.1124446341</v>
+        <v>1193518.161986315</v>
       </c>
       <c r="AF11" t="n">
         <v>3.637567342449362e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.15104166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>813208.9445201315</v>
+        <v>1079610.463719602</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>651.8905725339804</v>
+        <v>867.1365552551588</v>
       </c>
       <c r="AB12" t="n">
-        <v>891.9454407233177</v>
+        <v>1186.454490264999</v>
       </c>
       <c r="AC12" t="n">
-        <v>806.8194197139718</v>
+        <v>1073.220938913442</v>
       </c>
       <c r="AD12" t="n">
-        <v>651890.5725339804</v>
+        <v>867136.5552551588</v>
       </c>
       <c r="AE12" t="n">
-        <v>891945.4407233177</v>
+        <v>1186454.490264999</v>
       </c>
       <c r="AF12" t="n">
         <v>3.648596666012749e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>806819.4197139718</v>
+        <v>1073220.938913442</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>652.5802966940976</v>
+        <v>867.826279415276</v>
       </c>
       <c r="AB13" t="n">
-        <v>892.8891517476724</v>
+        <v>1187.398201289353</v>
       </c>
       <c r="AC13" t="n">
-        <v>807.6730642826689</v>
+        <v>1074.074583482139</v>
       </c>
       <c r="AD13" t="n">
-        <v>652580.2966940976</v>
+        <v>867826.279415276</v>
       </c>
       <c r="AE13" t="n">
-        <v>892889.1517476724</v>
+        <v>1187398.201289353</v>
       </c>
       <c r="AF13" t="n">
         <v>3.646969388765692e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.046875</v>
       </c>
       <c r="AH13" t="n">
-        <v>807673.0642826689</v>
+        <v>1074074.583482139</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>972.9907044414108</v>
+        <v>1272.952077449496</v>
       </c>
       <c r="AB2" t="n">
-        <v>1331.288807137101</v>
+        <v>1741.709191048577</v>
       </c>
       <c r="AC2" t="n">
-        <v>1204.232471859512</v>
+        <v>1575.482910359103</v>
       </c>
       <c r="AD2" t="n">
-        <v>972990.7044414108</v>
+        <v>1272952.077449496</v>
       </c>
       <c r="AE2" t="n">
-        <v>1331288.807137101</v>
+        <v>1741709.191048577</v>
       </c>
       <c r="AF2" t="n">
         <v>2.855987584658326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.13020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1204232.471859512</v>
+        <v>1575482.910359103</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>762.741742067161</v>
+        <v>1004.653985593379</v>
       </c>
       <c r="AB3" t="n">
-        <v>1043.616901287067</v>
+        <v>1374.611905294601</v>
       </c>
       <c r="AC3" t="n">
-        <v>944.0155689537493</v>
+        <v>1243.42087433321</v>
       </c>
       <c r="AD3" t="n">
-        <v>762741.742067161</v>
+        <v>1004653.985593379</v>
       </c>
       <c r="AE3" t="n">
-        <v>1043616.901287067</v>
+        <v>1374611.905294601</v>
       </c>
       <c r="AF3" t="n">
         <v>3.476934732925223e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.40104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>944015.5689537493</v>
+        <v>1243420.87433321</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>702.946715892883</v>
+        <v>935.1442448502116</v>
       </c>
       <c r="AB4" t="n">
-        <v>961.8027085050439</v>
+        <v>1279.505611456465</v>
       </c>
       <c r="AC4" t="n">
-        <v>870.0096079039015</v>
+        <v>1157.391391696464</v>
       </c>
       <c r="AD4" t="n">
-        <v>702946.715892883</v>
+        <v>935144.2448502117</v>
       </c>
       <c r="AE4" t="n">
-        <v>961802.708505044</v>
+        <v>1279505.611456465</v>
       </c>
       <c r="AF4" t="n">
         <v>3.71539532002517e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.22395833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>870009.6079039015</v>
+        <v>1157391.391696464</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>667.6517954483593</v>
+        <v>890.2702604820654</v>
       </c>
       <c r="AB5" t="n">
-        <v>913.5106412508516</v>
+        <v>1218.107046343497</v>
       </c>
       <c r="AC5" t="n">
-        <v>826.3264677701071</v>
+        <v>1101.85261946445</v>
       </c>
       <c r="AD5" t="n">
-        <v>667651.7954483593</v>
+        <v>890270.2604820654</v>
       </c>
       <c r="AE5" t="n">
-        <v>913510.6412508516</v>
+        <v>1218107.046343497</v>
       </c>
       <c r="AF5" t="n">
         <v>3.834823451451609e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.79166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>826326.4677701071</v>
+        <v>1101852.61946445</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>644.9489637604745</v>
+        <v>867.5332633753995</v>
       </c>
       <c r="AB6" t="n">
-        <v>882.4476253572411</v>
+        <v>1186.997283816639</v>
       </c>
       <c r="AC6" t="n">
-        <v>798.2280625161661</v>
+        <v>1073.711929010329</v>
       </c>
       <c r="AD6" t="n">
-        <v>644948.9637604745</v>
+        <v>867533.2633753995</v>
       </c>
       <c r="AE6" t="n">
-        <v>882447.6253572411</v>
+        <v>1186997.283816639</v>
       </c>
       <c r="AF6" t="n">
         <v>3.922597522643542e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.77604166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>798228.0625161661</v>
+        <v>1073711.929010329</v>
       </c>
     </row>
     <row r="7">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>635.6725263543518</v>
+        <v>848.543122430245</v>
       </c>
       <c r="AB7" t="n">
-        <v>869.755194450649</v>
+        <v>1161.014135189588</v>
       </c>
       <c r="AC7" t="n">
-        <v>786.7469794013605</v>
+        <v>1050.208575620666</v>
       </c>
       <c r="AD7" t="n">
-        <v>635672.5263543518</v>
+        <v>848543.122430245</v>
       </c>
       <c r="AE7" t="n">
-        <v>869755.194450649</v>
+        <v>1161014.135189588</v>
       </c>
       <c r="AF7" t="n">
         <v>3.973771586689327e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.22916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>786746.9794013605</v>
+        <v>1050208.575620666</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>618.3339661122611</v>
+        <v>831.2718819958588</v>
       </c>
       <c r="AB8" t="n">
-        <v>846.0318114041283</v>
+        <v>1137.382862073909</v>
       </c>
       <c r="AC8" t="n">
-        <v>765.2877227368225</v>
+        <v>1028.832638044447</v>
       </c>
       <c r="AD8" t="n">
-        <v>618333.9661122612</v>
+        <v>831271.8819958589</v>
       </c>
       <c r="AE8" t="n">
-        <v>846031.8114041283</v>
+        <v>1137382.862073909</v>
       </c>
       <c r="AF8" t="n">
         <v>4.008393215070818e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.83854166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>765287.7227368226</v>
+        <v>1028832.638044447</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>614.0541794807154</v>
+        <v>826.9920953643132</v>
       </c>
       <c r="AB9" t="n">
-        <v>840.176018523987</v>
+        <v>1131.527069193767</v>
       </c>
       <c r="AC9" t="n">
-        <v>759.990798510505</v>
+        <v>1023.53571381813</v>
       </c>
       <c r="AD9" t="n">
-        <v>614054.1794807154</v>
+        <v>826992.0953643132</v>
       </c>
       <c r="AE9" t="n">
-        <v>840176.0185239869</v>
+        <v>1131527.069193767</v>
       </c>
       <c r="AF9" t="n">
         <v>4.020065649782293e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.70833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>759990.798510505</v>
+        <v>1023535.71381813</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>612.8556742276384</v>
+        <v>825.7935901112362</v>
       </c>
       <c r="AB10" t="n">
-        <v>838.5361707624069</v>
+        <v>1129.887221432187</v>
       </c>
       <c r="AC10" t="n">
-        <v>758.5074555177493</v>
+        <v>1022.052370825374</v>
       </c>
       <c r="AD10" t="n">
-        <v>612855.6742276384</v>
+        <v>825793.5901112362</v>
       </c>
       <c r="AE10" t="n">
-        <v>838536.1707624069</v>
+        <v>1129887.221432187</v>
       </c>
       <c r="AF10" t="n">
         <v>4.031408354699657e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.60416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>758507.4555177493</v>
+        <v>1022052.370825374</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>630.3309451812897</v>
+        <v>854.7610217082409</v>
       </c>
       <c r="AB2" t="n">
-        <v>862.4466074357356</v>
+        <v>1169.521739296098</v>
       </c>
       <c r="AC2" t="n">
-        <v>780.1359136734842</v>
+        <v>1057.904225931748</v>
       </c>
       <c r="AD2" t="n">
-        <v>630330.9451812897</v>
+        <v>854761.021708241</v>
       </c>
       <c r="AE2" t="n">
-        <v>862446.6074357356</v>
+        <v>1169521.739296098</v>
       </c>
       <c r="AF2" t="n">
         <v>5.055180677656512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>780135.9136734842</v>
+        <v>1057904.225931748</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>545.5404904379367</v>
+        <v>760.6140741953044</v>
       </c>
       <c r="AB3" t="n">
-        <v>746.4325665650217</v>
+        <v>1040.705732238711</v>
       </c>
       <c r="AC3" t="n">
-        <v>675.1940900367423</v>
+        <v>941.3822377935169</v>
       </c>
       <c r="AD3" t="n">
-        <v>545540.4904379367</v>
+        <v>760614.0741953044</v>
       </c>
       <c r="AE3" t="n">
-        <v>746432.5665650218</v>
+        <v>1040705.732238711</v>
       </c>
       <c r="AF3" t="n">
         <v>5.580856876675018e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.94270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>675194.0900367423</v>
+        <v>941382.2377935168</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>540.7999552095237</v>
+        <v>746.4849028382411</v>
       </c>
       <c r="AB4" t="n">
-        <v>739.9463571278529</v>
+        <v>1021.37357665293</v>
       </c>
       <c r="AC4" t="n">
-        <v>669.3269153248049</v>
+        <v>923.8951160039918</v>
       </c>
       <c r="AD4" t="n">
-        <v>540799.9552095237</v>
+        <v>746484.9028382411</v>
       </c>
       <c r="AE4" t="n">
-        <v>739946.357127853</v>
+        <v>1021373.57665293</v>
       </c>
       <c r="AF4" t="n">
         <v>5.643448334446438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.47395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>669326.9153248048</v>
+        <v>923895.1160039918</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>736.7507083091251</v>
+        <v>983.196046423091</v>
       </c>
       <c r="AB2" t="n">
-        <v>1008.054822255839</v>
+        <v>1345.252206264349</v>
       </c>
       <c r="AC2" t="n">
-        <v>911.8474848335702</v>
+        <v>1216.863223771809</v>
       </c>
       <c r="AD2" t="n">
-        <v>736750.7083091252</v>
+        <v>983196.0464230911</v>
       </c>
       <c r="AE2" t="n">
-        <v>1008054.822255839</v>
+        <v>1345252.206264349</v>
       </c>
       <c r="AF2" t="n">
         <v>4.044825573778417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>911847.4848335702</v>
+        <v>1216863.223771809</v>
       </c>
     </row>
     <row r="3">
@@ -6975,19 +6975,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>617.7622307515533</v>
+        <v>845.2414175787043</v>
       </c>
       <c r="AB3" t="n">
-        <v>845.249537860424</v>
+        <v>1156.496596950772</v>
       </c>
       <c r="AC3" t="n">
-        <v>764.5801082822015</v>
+        <v>1046.122184890958</v>
       </c>
       <c r="AD3" t="n">
-        <v>617762.2307515533</v>
+        <v>845241.4175787043</v>
       </c>
       <c r="AE3" t="n">
-        <v>845249.537860424</v>
+        <v>1156496.596950772</v>
       </c>
       <c r="AF3" t="n">
         <v>4.612614087701985e-06</v>
@@ -6996,7 +6996,7 @@
         <v>45</v>
       </c>
       <c r="AH3" t="n">
-        <v>764580.1082822016</v>
+        <v>1046122.184890958</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>587.3605515318858</v>
+        <v>795.875609131936</v>
       </c>
       <c r="AB4" t="n">
-        <v>803.6526191246468</v>
+        <v>1088.952119968141</v>
       </c>
       <c r="AC4" t="n">
-        <v>726.9531410889248</v>
+        <v>985.0240579922807</v>
       </c>
       <c r="AD4" t="n">
-        <v>587360.5515318858</v>
+        <v>795875.609131936</v>
       </c>
       <c r="AE4" t="n">
-        <v>803652.6191246468</v>
+        <v>1088952.119968141</v>
       </c>
       <c r="AF4" t="n">
         <v>4.815959377470205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.09895833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>726953.1410889248</v>
+        <v>985024.0579922807</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>566.8959759541732</v>
+        <v>775.3768681354427</v>
       </c>
       <c r="AB5" t="n">
-        <v>775.6520839858649</v>
+        <v>1060.904838196112</v>
       </c>
       <c r="AC5" t="n">
-        <v>701.6249377247905</v>
+        <v>959.6535694279661</v>
       </c>
       <c r="AD5" t="n">
-        <v>566895.9759541732</v>
+        <v>775376.8681354427</v>
       </c>
       <c r="AE5" t="n">
-        <v>775652.0839858649</v>
+        <v>1060904.838196112</v>
       </c>
       <c r="AF5" t="n">
         <v>4.896548200659413e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.39583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>701624.9377247904</v>
+        <v>959653.5694279661</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>567.8880622828283</v>
+        <v>776.3689544640978</v>
       </c>
       <c r="AB6" t="n">
-        <v>777.0095002684906</v>
+        <v>1062.262254478737</v>
       </c>
       <c r="AC6" t="n">
-        <v>702.8528041025479</v>
+        <v>960.8814358057238</v>
       </c>
       <c r="AD6" t="n">
-        <v>567888.0622828283</v>
+        <v>776368.9544640977</v>
       </c>
       <c r="AE6" t="n">
-        <v>777009.5002684905</v>
+        <v>1062262.254478737</v>
       </c>
       <c r="AF6" t="n">
         <v>4.906273063596191e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.31770833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>702852.8041025479</v>
+        <v>960881.4358057238</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>554.1452661911665</v>
+        <v>766.8896941694608</v>
       </c>
       <c r="AB2" t="n">
-        <v>758.206000366505</v>
+        <v>1049.292312348165</v>
       </c>
       <c r="AC2" t="n">
-        <v>685.84388384033</v>
+        <v>949.1493267486655</v>
       </c>
       <c r="AD2" t="n">
-        <v>554145.2661911665</v>
+        <v>766889.6941694608</v>
       </c>
       <c r="AE2" t="n">
-        <v>758206.000366505</v>
+        <v>1049292.312348165</v>
       </c>
       <c r="AF2" t="n">
         <v>6.118739543709922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.86979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>685843.8838403301</v>
+        <v>949149.3267486655</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>530.2770352882559</v>
+        <v>733.7029002676686</v>
       </c>
       <c r="AB3" t="n">
-        <v>725.5484338531118</v>
+        <v>1003.884676833717</v>
       </c>
       <c r="AC3" t="n">
-        <v>656.3031096397928</v>
+        <v>908.0753322376996</v>
       </c>
       <c r="AD3" t="n">
-        <v>530277.0352882559</v>
+        <v>733702.9002676687</v>
       </c>
       <c r="AE3" t="n">
-        <v>725548.4338531118</v>
+        <v>1003884.676833717</v>
       </c>
       <c r="AF3" t="n">
         <v>6.382200209475991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>656303.1096397927</v>
+        <v>908075.3322376997</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1011.285429170394</v>
+        <v>1321.902816695289</v>
       </c>
       <c r="AB2" t="n">
-        <v>1383.685338955316</v>
+        <v>1808.685752038872</v>
       </c>
       <c r="AC2" t="n">
-        <v>1251.62835221999</v>
+        <v>1636.067322370678</v>
       </c>
       <c r="AD2" t="n">
-        <v>1011285.429170394</v>
+        <v>1321902.816695289</v>
       </c>
       <c r="AE2" t="n">
-        <v>1383685.338955316</v>
+        <v>1808685.752038872</v>
       </c>
       <c r="AF2" t="n">
         <v>2.709642038817241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.84895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1251628.35221999</v>
+        <v>1636067.322370678</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>788.4501352649859</v>
+        <v>1031.106032927951</v>
       </c>
       <c r="AB3" t="n">
-        <v>1078.792259034593</v>
+        <v>1410.804763439729</v>
       </c>
       <c r="AC3" t="n">
-        <v>975.8338399267759</v>
+        <v>1276.159536893963</v>
       </c>
       <c r="AD3" t="n">
-        <v>788450.1352649858</v>
+        <v>1031106.032927951</v>
       </c>
       <c r="AE3" t="n">
-        <v>1078792.259034593</v>
+        <v>1410804.763439729</v>
       </c>
       <c r="AF3" t="n">
         <v>3.345834533847575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>975833.8399267759</v>
+        <v>1276159.536893963</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>717.4783266337388</v>
+        <v>950.4584499868005</v>
       </c>
       <c r="AB4" t="n">
-        <v>981.6854994101028</v>
+        <v>1300.459182539394</v>
       </c>
       <c r="AC4" t="n">
-        <v>887.9948131506538</v>
+        <v>1176.345183363759</v>
       </c>
       <c r="AD4" t="n">
-        <v>717478.3266337388</v>
+        <v>950458.4499868004</v>
       </c>
       <c r="AE4" t="n">
-        <v>981685.4994101028</v>
+        <v>1300459.182539394</v>
       </c>
       <c r="AF4" t="n">
         <v>3.577633579679991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.84895833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>887994.8131506538</v>
+        <v>1176345.183363759</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>689.4847902993778</v>
+        <v>912.6886651459082</v>
       </c>
       <c r="AB5" t="n">
-        <v>943.3835080097681</v>
+        <v>1248.780896634778</v>
       </c>
       <c r="AC5" t="n">
-        <v>853.3483100523844</v>
+        <v>1129.599000534951</v>
       </c>
       <c r="AD5" t="n">
-        <v>689484.7902993778</v>
+        <v>912688.6651459082</v>
       </c>
       <c r="AE5" t="n">
-        <v>943383.5080097681</v>
+        <v>1248780.896634778</v>
       </c>
       <c r="AF5" t="n">
         <v>3.711551906825259e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.15625</v>
       </c>
       <c r="AH5" t="n">
-        <v>853348.3100523844</v>
+        <v>1129599.000534951</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>668.9534855784725</v>
+        <v>892.1231950062222</v>
       </c>
       <c r="AB6" t="n">
-        <v>915.2916711133878</v>
+        <v>1220.64231310515</v>
       </c>
       <c r="AC6" t="n">
-        <v>827.937518642254</v>
+        <v>1104.14592392464</v>
       </c>
       <c r="AD6" t="n">
-        <v>668953.4855784725</v>
+        <v>892123.1950062222</v>
       </c>
       <c r="AE6" t="n">
-        <v>915291.6711133878</v>
+        <v>1220642.31310515</v>
       </c>
       <c r="AF6" t="n">
         <v>3.77944418704547e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.34895833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>827937.5186422539</v>
+        <v>1104145.92392464</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>648.0666146691411</v>
+        <v>871.3036439045953</v>
       </c>
       <c r="AB7" t="n">
-        <v>886.7133328715298</v>
+        <v>1192.156084794134</v>
       </c>
       <c r="AC7" t="n">
-        <v>802.0866568922493</v>
+        <v>1078.378381262955</v>
       </c>
       <c r="AD7" t="n">
-        <v>648066.6146691411</v>
+        <v>871303.6439045953</v>
       </c>
       <c r="AE7" t="n">
-        <v>886713.3328715299</v>
+        <v>1192156.084794134</v>
       </c>
       <c r="AF7" t="n">
         <v>3.845727645459514e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.56770833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>802086.6568922492</v>
+        <v>1078378.381262955</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>641.230361109904</v>
+        <v>854.7253072576076</v>
       </c>
       <c r="AB8" t="n">
-        <v>877.35966915756</v>
+        <v>1169.472873209131</v>
       </c>
       <c r="AC8" t="n">
-        <v>793.6256937151912</v>
+        <v>1057.860023555537</v>
       </c>
       <c r="AD8" t="n">
-        <v>641230.361109904</v>
+        <v>854725.3072576076</v>
       </c>
       <c r="AE8" t="n">
-        <v>877359.66915756</v>
+        <v>1169472.873209131</v>
       </c>
       <c r="AF8" t="n">
         <v>3.87803278732733e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>793625.6937151912</v>
+        <v>1057860.023555537</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>624.3008455481811</v>
+        <v>837.8631115035893</v>
       </c>
       <c r="AB9" t="n">
-        <v>854.1959590884961</v>
+        <v>1146.401273070909</v>
       </c>
       <c r="AC9" t="n">
-        <v>772.6726956246476</v>
+        <v>1036.990344553313</v>
       </c>
       <c r="AD9" t="n">
-        <v>624300.8455481811</v>
+        <v>837863.1115035893</v>
       </c>
       <c r="AE9" t="n">
-        <v>854195.9590884962</v>
+        <v>1146401.273070909</v>
       </c>
       <c r="AF9" t="n">
         <v>3.906476756860347e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.890625</v>
       </c>
       <c r="AH9" t="n">
-        <v>772672.6956246477</v>
+        <v>1036990.344553313</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>621.7308910967126</v>
+        <v>835.2931570521208</v>
       </c>
       <c r="AB10" t="n">
-        <v>850.6796340296085</v>
+        <v>1142.884948012021</v>
       </c>
       <c r="AC10" t="n">
-        <v>769.4919636941869</v>
+        <v>1033.809612622852</v>
       </c>
       <c r="AD10" t="n">
-        <v>621730.8910967127</v>
+        <v>835293.1570521208</v>
       </c>
       <c r="AE10" t="n">
-        <v>850679.6340296085</v>
+        <v>1142884.948012021</v>
       </c>
       <c r="AF10" t="n">
         <v>3.916000981952851e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.78645833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>769491.9636941869</v>
+        <v>1033809.612622852</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>619.8563101364412</v>
+        <v>833.4185760918492</v>
       </c>
       <c r="AB11" t="n">
-        <v>848.1147496590899</v>
+        <v>1140.320063641502</v>
       </c>
       <c r="AC11" t="n">
-        <v>767.1718682881527</v>
+        <v>1031.489517216818</v>
       </c>
       <c r="AD11" t="n">
-        <v>619856.3101364411</v>
+        <v>833418.5760918492</v>
       </c>
       <c r="AE11" t="n">
-        <v>848114.7496590898</v>
+        <v>1140320.063641503</v>
       </c>
       <c r="AF11" t="n">
         <v>3.929772496613633e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.65624999999999</v>
       </c>
       <c r="AH11" t="n">
-        <v>767171.8682881527</v>
+        <v>1031489.517216818</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>520.4595513504928</v>
+        <v>731.7501428648868</v>
       </c>
       <c r="AB2" t="n">
-        <v>712.1157192126408</v>
+        <v>1001.212828005655</v>
       </c>
       <c r="AC2" t="n">
-        <v>644.1523944316748</v>
+        <v>905.658480911824</v>
       </c>
       <c r="AD2" t="n">
-        <v>520459.5513504928</v>
+        <v>731750.1428648868</v>
       </c>
       <c r="AE2" t="n">
-        <v>712115.7192126408</v>
+        <v>1001212.828005655</v>
       </c>
       <c r="AF2" t="n">
         <v>6.849835173067509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>644152.3944316747</v>
+        <v>905658.4809118239</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.7139914200809</v>
+        <v>720.7819101824227</v>
       </c>
       <c r="AB3" t="n">
-        <v>709.7273671071822</v>
+        <v>986.2056081652323</v>
       </c>
       <c r="AC3" t="n">
-        <v>641.9919832990877</v>
+        <v>892.0835290702059</v>
       </c>
       <c r="AD3" t="n">
-        <v>518713.9914200809</v>
+        <v>720781.9101824227</v>
       </c>
       <c r="AE3" t="n">
-        <v>709727.3671071822</v>
+        <v>986205.6081652323</v>
       </c>
       <c r="AF3" t="n">
         <v>6.911781307926675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.46354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>641991.9832990877</v>
+        <v>892083.529070206</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>846.9289630170761</v>
+        <v>1124.925501903713</v>
       </c>
       <c r="AB2" t="n">
-        <v>1158.805571068803</v>
+        <v>1539.172699915221</v>
       </c>
       <c r="AC2" t="n">
-        <v>1048.210793759829</v>
+        <v>1392.276217677763</v>
       </c>
       <c r="AD2" t="n">
-        <v>846928.963017076</v>
+        <v>1124925.501903713</v>
       </c>
       <c r="AE2" t="n">
-        <v>1158805.571068803</v>
+        <v>1539172.699915221</v>
       </c>
       <c r="AF2" t="n">
         <v>3.361703620811199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1048210.793759829</v>
+        <v>1392276.217677763</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.9178318125857</v>
+        <v>923.9389973923336</v>
       </c>
       <c r="AB3" t="n">
-        <v>949.448990980128</v>
+        <v>1264.174097543967</v>
       </c>
       <c r="AC3" t="n">
-        <v>858.8349118410119</v>
+        <v>1143.52309595386</v>
       </c>
       <c r="AD3" t="n">
-        <v>693917.8318125857</v>
+        <v>923938.9973923336</v>
       </c>
       <c r="AE3" t="n">
-        <v>949448.9909801279</v>
+        <v>1264174.097543967</v>
       </c>
       <c r="AF3" t="n">
         <v>3.969852090513205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>858834.911841012</v>
+        <v>1143523.09595386</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>640.746624441852</v>
+        <v>861.2466660457113</v>
       </c>
       <c r="AB4" t="n">
-        <v>876.6977993073755</v>
+        <v>1178.395684005059</v>
       </c>
       <c r="AC4" t="n">
-        <v>793.0269917945683</v>
+        <v>1065.931253812346</v>
       </c>
       <c r="AD4" t="n">
-        <v>640746.624441852</v>
+        <v>861246.6660457114</v>
       </c>
       <c r="AE4" t="n">
-        <v>876697.7993073754</v>
+        <v>1178395.684005059</v>
       </c>
       <c r="AF4" t="n">
         <v>4.190853574255875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.55729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>793026.9917945683</v>
+        <v>1065931.253812346</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>617.8931908241616</v>
+        <v>828.7374688367236</v>
       </c>
       <c r="AB5" t="n">
-        <v>845.4287232093172</v>
+        <v>1133.915166179162</v>
       </c>
       <c r="AC5" t="n">
-        <v>764.7421924328846</v>
+        <v>1025.695894178953</v>
       </c>
       <c r="AD5" t="n">
-        <v>617893.1908241616</v>
+        <v>828737.4688367236</v>
       </c>
       <c r="AE5" t="n">
-        <v>845428.7232093172</v>
+        <v>1133915.166179162</v>
       </c>
       <c r="AF5" t="n">
         <v>4.297267007699783e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.46354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>764742.1924328846</v>
+        <v>1025695.894178953</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>594.8245251310618</v>
+        <v>805.7361229513281</v>
       </c>
       <c r="AB6" t="n">
-        <v>813.8651570903145</v>
+        <v>1102.443709991001</v>
       </c>
       <c r="AC6" t="n">
-        <v>736.1910087645364</v>
+        <v>997.2280295989243</v>
       </c>
       <c r="AD6" t="n">
-        <v>594824.5251310618</v>
+        <v>805736.1229513281</v>
       </c>
       <c r="AE6" t="n">
-        <v>813865.1570903144</v>
+        <v>1102443.709991002</v>
       </c>
       <c r="AF6" t="n">
         <v>4.379156590579124e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.63020833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>736191.0087645364</v>
+        <v>997228.0295989243</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>590.6722074120344</v>
+        <v>801.4823200058155</v>
       </c>
       <c r="AB7" t="n">
-        <v>808.1837727998122</v>
+        <v>1096.62346913641</v>
       </c>
       <c r="AC7" t="n">
-        <v>731.0518478168467</v>
+        <v>991.9632643627357</v>
       </c>
       <c r="AD7" t="n">
-        <v>590672.2074120344</v>
+        <v>801482.3200058155</v>
       </c>
       <c r="AE7" t="n">
-        <v>808183.7727998123</v>
+        <v>1096623.46913641</v>
       </c>
       <c r="AF7" t="n">
         <v>4.400166790039411e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.44791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>731051.8478168467</v>
+        <v>991963.2643627357</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>591.8396828403522</v>
+        <v>802.6497954341331</v>
       </c>
       <c r="AB8" t="n">
-        <v>809.7811641862173</v>
+        <v>1098.220860522815</v>
       </c>
       <c r="AC8" t="n">
-        <v>732.4967864112862</v>
+        <v>993.4082029571753</v>
       </c>
       <c r="AD8" t="n">
-        <v>591839.6828403522</v>
+        <v>802649.7954341331</v>
       </c>
       <c r="AE8" t="n">
-        <v>809781.1641862174</v>
+        <v>1098220.860522815</v>
       </c>
       <c r="AF8" t="n">
         <v>4.39708338192749e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.47395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>732496.7864112862</v>
+        <v>993408.2029571752</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>926.7478134821469</v>
+        <v>1216.246361066265</v>
       </c>
       <c r="AB2" t="n">
-        <v>1268.01724363427</v>
+        <v>1664.121928213392</v>
       </c>
       <c r="AC2" t="n">
-        <v>1146.999457575193</v>
+        <v>1505.300466994501</v>
       </c>
       <c r="AD2" t="n">
-        <v>926747.8134821468</v>
+        <v>1216246.361066265</v>
       </c>
       <c r="AE2" t="n">
-        <v>1268017.24363427</v>
+        <v>1664121.928213392</v>
       </c>
       <c r="AF2" t="n">
         <v>3.009624919800808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.56770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1146999.457575193</v>
+        <v>1505300.466994501</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>736.5066478728498</v>
+        <v>977.7497432898178</v>
       </c>
       <c r="AB3" t="n">
-        <v>1007.720887999741</v>
+        <v>1337.800334043468</v>
       </c>
       <c r="AC3" t="n">
-        <v>911.5454207941941</v>
+        <v>1210.12254777692</v>
       </c>
       <c r="AD3" t="n">
-        <v>736506.6478728498</v>
+        <v>977749.7432898178</v>
       </c>
       <c r="AE3" t="n">
-        <v>1007720.887999741</v>
+        <v>1337800.334043468</v>
       </c>
       <c r="AF3" t="n">
         <v>3.626711401164217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>911545.4207941941</v>
+        <v>1210122.54777692</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>679.2270212578999</v>
+        <v>910.7848608226572</v>
       </c>
       <c r="AB4" t="n">
-        <v>929.348375866387</v>
+        <v>1246.176027569787</v>
       </c>
       <c r="AC4" t="n">
-        <v>840.6526712223357</v>
+        <v>1127.242736517566</v>
       </c>
       <c r="AD4" t="n">
-        <v>679227.0212578999</v>
+        <v>910784.8608226571</v>
       </c>
       <c r="AE4" t="n">
-        <v>929348.3758663869</v>
+        <v>1246176.027569787</v>
       </c>
       <c r="AF4" t="n">
         <v>3.859887108995405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.67708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>840652.6712223357</v>
+        <v>1127242.736517566</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>653.5801246325482</v>
+        <v>875.4195539561709</v>
       </c>
       <c r="AB5" t="n">
-        <v>894.2571604423558</v>
+        <v>1197.787654507836</v>
       </c>
       <c r="AC5" t="n">
-        <v>808.9105121475442</v>
+        <v>1083.472481867139</v>
       </c>
       <c r="AD5" t="n">
-        <v>653580.1246325482</v>
+        <v>875419.5539561709</v>
       </c>
       <c r="AE5" t="n">
-        <v>894257.1604423558</v>
+        <v>1197787.654507836</v>
       </c>
       <c r="AF5" t="n">
         <v>3.984901777315929e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.24479166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>808910.5121475442</v>
+        <v>1083472.481867139</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>633.1945888478582</v>
+        <v>845.4170931568318</v>
       </c>
       <c r="AB6" t="n">
-        <v>866.3647710353772</v>
+        <v>1156.736964027026</v>
       </c>
       <c r="AC6" t="n">
-        <v>783.6801332383531</v>
+        <v>1046.339611670811</v>
       </c>
       <c r="AD6" t="n">
-        <v>633194.5888478582</v>
+        <v>845417.0931568318</v>
       </c>
       <c r="AE6" t="n">
-        <v>866364.7710353772</v>
+        <v>1156736.964027026</v>
       </c>
       <c r="AF6" t="n">
         <v>4.055226758574739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.46354166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>783680.1332383531</v>
+        <v>1046339.611670811</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>613.7068110653349</v>
+        <v>835.5793947778814</v>
       </c>
       <c r="AB7" t="n">
-        <v>839.7007337332504</v>
+        <v>1143.276591096324</v>
       </c>
       <c r="AC7" t="n">
-        <v>759.5608742331299</v>
+        <v>1034.163877840864</v>
       </c>
       <c r="AD7" t="n">
-        <v>613706.8110653349</v>
+        <v>835579.3947778813</v>
       </c>
       <c r="AE7" t="n">
-        <v>839700.7337332504</v>
+        <v>1143276.591096324</v>
       </c>
       <c r="AF7" t="n">
         <v>4.10402782834144e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.94270833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>759560.8742331299</v>
+        <v>1034163.877840864</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>605.3051515186108</v>
+        <v>817.594975635289</v>
       </c>
       <c r="AB8" t="n">
-        <v>828.2052124863629</v>
+        <v>1118.669515408853</v>
       </c>
       <c r="AC8" t="n">
-        <v>749.1624693999801</v>
+        <v>1011.905266920757</v>
       </c>
       <c r="AD8" t="n">
-        <v>605305.1515186109</v>
+        <v>817594.975635289</v>
       </c>
       <c r="AE8" t="n">
-        <v>828205.2124863629</v>
+        <v>1118669.515408853</v>
       </c>
       <c r="AF8" t="n">
         <v>4.142946850693526e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.55208333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>749162.46939998</v>
+        <v>1011905.266920757</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>605.6967488908895</v>
+        <v>817.9865730075675</v>
       </c>
       <c r="AB9" t="n">
-        <v>828.7410132871711</v>
+        <v>1119.205316209661</v>
       </c>
       <c r="AC9" t="n">
-        <v>749.6471341243602</v>
+        <v>1012.389931645137</v>
       </c>
       <c r="AD9" t="n">
-        <v>605696.7488908895</v>
+        <v>817986.5730075674</v>
       </c>
       <c r="AE9" t="n">
-        <v>828741.0132871711</v>
+        <v>1119205.316209661</v>
       </c>
       <c r="AF9" t="n">
         <v>4.14254073915594e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.55208333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>749647.1341243602</v>
+        <v>1012389.931645137</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1111.10265335422</v>
+        <v>1442.869226500394</v>
       </c>
       <c r="AB2" t="n">
-        <v>1520.259668708766</v>
+        <v>1974.197330595575</v>
       </c>
       <c r="AC2" t="n">
-        <v>1375.168219625047</v>
+        <v>1785.782708166888</v>
       </c>
       <c r="AD2" t="n">
-        <v>1111102.65335422</v>
+        <v>1442869.226500394</v>
       </c>
       <c r="AE2" t="n">
-        <v>1520259.668708766</v>
+        <v>1974197.330595575</v>
       </c>
       <c r="AF2" t="n">
         <v>2.451089088591067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.36458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1375168.219625047</v>
+        <v>1785782.708166888</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>832.1062450777699</v>
+        <v>1095.634458613031</v>
       </c>
       <c r="AB3" t="n">
-        <v>1138.524474452081</v>
+        <v>1499.09540225528</v>
       </c>
       <c r="AC3" t="n">
-        <v>1029.865296539509</v>
+        <v>1356.023841057647</v>
       </c>
       <c r="AD3" t="n">
-        <v>832106.24507777</v>
+        <v>1095634.458613031</v>
       </c>
       <c r="AE3" t="n">
-        <v>1138524.474452081</v>
+        <v>1499095.40225528</v>
       </c>
       <c r="AF3" t="n">
         <v>3.095241404799017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.77083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1029865.29653951</v>
+        <v>1356023.841057647</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>754.4468570235761</v>
+        <v>998.4494006052943</v>
       </c>
       <c r="AB4" t="n">
-        <v>1032.267473625933</v>
+        <v>1366.122518386933</v>
       </c>
       <c r="AC4" t="n">
-        <v>933.7493147395721</v>
+        <v>1235.74170259708</v>
       </c>
       <c r="AD4" t="n">
-        <v>754446.857023576</v>
+        <v>998449.4006052943</v>
       </c>
       <c r="AE4" t="n">
-        <v>1032267.473625933</v>
+        <v>1366122.518386933</v>
       </c>
       <c r="AF4" t="n">
         <v>3.346527875273108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>933749.3147395721</v>
+        <v>1235741.70259708</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>726.0990042382475</v>
+        <v>950.5768888962805</v>
       </c>
       <c r="AB5" t="n">
-        <v>993.4806908260462</v>
+        <v>1300.6212358805</v>
       </c>
       <c r="AC5" t="n">
-        <v>898.6642880525146</v>
+        <v>1176.491770561434</v>
       </c>
       <c r="AD5" t="n">
-        <v>726099.0042382475</v>
+        <v>950576.8888962804</v>
       </c>
       <c r="AE5" t="n">
-        <v>993480.6908260462</v>
+        <v>1300621.2358805</v>
       </c>
       <c r="AF5" t="n">
         <v>3.473217111978827e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.14583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>898664.2880525147</v>
+        <v>1176491.770561434</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>703.2573075164145</v>
+        <v>927.7010267556666</v>
       </c>
       <c r="AB6" t="n">
-        <v>962.2276736666951</v>
+        <v>1269.321472087901</v>
       </c>
       <c r="AC6" t="n">
-        <v>870.3940149869667</v>
+        <v>1148.179212295706</v>
       </c>
       <c r="AD6" t="n">
-        <v>703257.3075164144</v>
+        <v>927701.0267556666</v>
       </c>
       <c r="AE6" t="n">
-        <v>962227.673666695</v>
+        <v>1269321.472087901</v>
       </c>
       <c r="AF6" t="n">
         <v>3.55640499348739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.05208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>870394.0149869667</v>
+        <v>1148179.212295706</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>682.8574953306196</v>
+        <v>907.2670491510909</v>
       </c>
       <c r="AB7" t="n">
-        <v>934.315750657894</v>
+        <v>1241.362802445853</v>
       </c>
       <c r="AC7" t="n">
-        <v>845.1459667354959</v>
+        <v>1122.888878844056</v>
       </c>
       <c r="AD7" t="n">
-        <v>682857.4953306196</v>
+        <v>907267.0491510909</v>
       </c>
       <c r="AE7" t="n">
-        <v>934315.750657894</v>
+        <v>1241362.802445853</v>
       </c>
       <c r="AF7" t="n">
         <v>3.617811432648297e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>845145.966735496</v>
+        <v>1122888.878844056</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>662.8135214630922</v>
+        <v>887.2903950912681</v>
       </c>
       <c r="AB8" t="n">
-        <v>906.8907013346253</v>
+        <v>1214.029863053426</v>
       </c>
       <c r="AC8" t="n">
-        <v>820.3383256283414</v>
+        <v>1098.16455682522</v>
       </c>
       <c r="AD8" t="n">
-        <v>662813.5214630922</v>
+        <v>887290.3950912681</v>
       </c>
       <c r="AE8" t="n">
-        <v>906890.7013346252</v>
+        <v>1214029.863053425</v>
       </c>
       <c r="AF8" t="n">
         <v>3.666911972177759e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.69791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>820338.3256283414</v>
+        <v>1098164.55682522</v>
       </c>
     </row>
     <row r="9">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>657.851445030287</v>
+        <v>872.5323292927681</v>
       </c>
       <c r="AB9" t="n">
-        <v>900.1013694478989</v>
+        <v>1193.837226348006</v>
       </c>
       <c r="AC9" t="n">
-        <v>814.1969580479972</v>
+        <v>1079.899077026422</v>
       </c>
       <c r="AD9" t="n">
-        <v>657851.445030287</v>
+        <v>872532.329292768</v>
       </c>
       <c r="AE9" t="n">
-        <v>900101.3694478989</v>
+        <v>1193837.226348006</v>
       </c>
       <c r="AF9" t="n">
         <v>3.690170122481189e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.41145833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>814196.9580479972</v>
+        <v>1079899.077026422</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>651.5540808947403</v>
+        <v>866.2349651572213</v>
       </c>
       <c r="AB10" t="n">
-        <v>891.4850380175458</v>
+        <v>1185.220894917652</v>
       </c>
       <c r="AC10" t="n">
-        <v>806.4029571962598</v>
+        <v>1072.105076174685</v>
       </c>
       <c r="AD10" t="n">
-        <v>651554.0808947403</v>
+        <v>866234.9651572213</v>
       </c>
       <c r="AE10" t="n">
-        <v>891485.0380175458</v>
+        <v>1185220.894917652</v>
       </c>
       <c r="AF10" t="n">
         <v>3.715458746223807e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.125</v>
       </c>
       <c r="AH10" t="n">
-        <v>806402.9571962598</v>
+        <v>1072105.076174685</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>637.0895711758644</v>
+        <v>861.5322793852595</v>
       </c>
       <c r="AB11" t="n">
-        <v>871.694057691048</v>
+        <v>1178.7864727766</v>
       </c>
       <c r="AC11" t="n">
-        <v>788.5008002553076</v>
+        <v>1066.284746252006</v>
       </c>
       <c r="AD11" t="n">
-        <v>637089.5711758644</v>
+        <v>861532.2793852595</v>
       </c>
       <c r="AE11" t="n">
-        <v>871694.057691048</v>
+        <v>1178786.4727766</v>
       </c>
       <c r="AF11" t="n">
         <v>3.726964762379207e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.99479166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>788500.8002553076</v>
+        <v>1066284.746252006</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>634.2893430312972</v>
+        <v>849.0375471014828</v>
       </c>
       <c r="AB12" t="n">
-        <v>867.8626620063042</v>
+        <v>1161.690628837252</v>
       </c>
       <c r="AC12" t="n">
-        <v>785.0350675973181</v>
+        <v>1050.820505664062</v>
       </c>
       <c r="AD12" t="n">
-        <v>634289.3430312972</v>
+        <v>849037.5471014827</v>
       </c>
       <c r="AE12" t="n">
-        <v>867862.6620063041</v>
+        <v>1161690.628837253</v>
       </c>
       <c r="AF12" t="n">
         <v>3.738778426025394e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.86458333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>785035.0675973181</v>
+        <v>1050820.505664062</v>
       </c>
     </row>
   </sheetData>
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>770.3963690650753</v>
+        <v>1027.395237354858</v>
       </c>
       <c r="AB2" t="n">
-        <v>1054.090299643923</v>
+        <v>1405.727489227878</v>
       </c>
       <c r="AC2" t="n">
-        <v>953.4894008709337</v>
+        <v>1271.566830606891</v>
       </c>
       <c r="AD2" t="n">
-        <v>770396.3690650753</v>
+        <v>1027395.237354858</v>
       </c>
       <c r="AE2" t="n">
-        <v>1054090.299643923</v>
+        <v>1405727.489227878</v>
       </c>
       <c r="AF2" t="n">
         <v>3.785498954054597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.76041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>953489.4008709337</v>
+        <v>1271566.830606891</v>
       </c>
     </row>
     <row r="3">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>643.2143909659524</v>
+        <v>871.6198678693362</v>
       </c>
       <c r="AB3" t="n">
-        <v>880.074306335825</v>
+        <v>1192.588756373509</v>
       </c>
       <c r="AC3" t="n">
-        <v>796.0812497311798</v>
+        <v>1078.769759274053</v>
       </c>
       <c r="AD3" t="n">
-        <v>643214.3909659523</v>
+        <v>871619.8678693362</v>
       </c>
       <c r="AE3" t="n">
-        <v>880074.306335825</v>
+        <v>1192588.756373509</v>
       </c>
       <c r="AF3" t="n">
         <v>4.373907749753829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.67708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>796081.2497311798</v>
+        <v>1078769.759274053</v>
       </c>
     </row>
     <row r="4">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>602.8008161492274</v>
+        <v>821.6865510634053</v>
       </c>
       <c r="AB4" t="n">
-        <v>824.7786703504934</v>
+        <v>1124.26778941717</v>
       </c>
       <c r="AC4" t="n">
-        <v>746.0629516363756</v>
+        <v>1016.969249514947</v>
       </c>
       <c r="AD4" t="n">
-        <v>602800.8161492274</v>
+        <v>821686.5510634053</v>
       </c>
       <c r="AE4" t="n">
-        <v>824778.6703504934</v>
+        <v>1124267.78941717</v>
       </c>
       <c r="AF4" t="n">
         <v>4.583774320609401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.56770833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>746062.9516363756</v>
+        <v>1016969.249514948</v>
       </c>
     </row>
     <row r="5">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>578.5284790378278</v>
+        <v>787.9286373815804</v>
       </c>
       <c r="AB5" t="n">
-        <v>791.5681878947378</v>
+        <v>1078.078722623655</v>
       </c>
       <c r="AC5" t="n">
-        <v>716.0220310149926</v>
+        <v>975.1884024294427</v>
       </c>
       <c r="AD5" t="n">
-        <v>578528.4790378278</v>
+        <v>787928.6373815804</v>
       </c>
       <c r="AE5" t="n">
-        <v>791568.1878947378</v>
+        <v>1078078.722623655</v>
       </c>
       <c r="AF5" t="n">
         <v>4.692389475701321e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.57812500000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>716022.0310149926</v>
+        <v>975188.4024294427</v>
       </c>
     </row>
     <row r="6">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>574.4007891465143</v>
+        <v>783.6994622637816</v>
       </c>
       <c r="AB6" t="n">
-        <v>785.9205004846166</v>
+        <v>1072.292178649444</v>
       </c>
       <c r="AC6" t="n">
-        <v>710.9133509647143</v>
+        <v>969.9541180906655</v>
       </c>
       <c r="AD6" t="n">
-        <v>574400.7891465143</v>
+        <v>783699.4622637816</v>
       </c>
       <c r="AE6" t="n">
-        <v>785920.5004846166</v>
+        <v>1072292.178649444</v>
       </c>
       <c r="AF6" t="n">
         <v>4.713943754360099e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.36979166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>710913.3509647143</v>
+        <v>969954.1180906654</v>
       </c>
     </row>
     <row r="7">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>574.423400700047</v>
+        <v>774.2706626656698</v>
       </c>
       <c r="AB7" t="n">
-        <v>785.9514386097113</v>
+        <v>1059.391279070027</v>
       </c>
       <c r="AC7" t="n">
-        <v>710.9413363985718</v>
+        <v>958.2844622605816</v>
       </c>
       <c r="AD7" t="n">
-        <v>574423.4007000469</v>
+        <v>774270.6626656698</v>
       </c>
       <c r="AE7" t="n">
-        <v>785951.4386097114</v>
+        <v>1059391.279070027</v>
       </c>
       <c r="AF7" t="n">
         <v>4.730128639758682e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.23958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>710941.3363985718</v>
+        <v>958284.4622605816</v>
       </c>
     </row>
   </sheetData>
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>662.8887260796104</v>
+        <v>897.877894877</v>
       </c>
       <c r="AB2" t="n">
-        <v>906.9935996087389</v>
+        <v>1228.516147347789</v>
       </c>
       <c r="AC2" t="n">
-        <v>820.4314034355923</v>
+        <v>1111.268290478157</v>
       </c>
       <c r="AD2" t="n">
-        <v>662888.7260796104</v>
+        <v>897877.894877</v>
       </c>
       <c r="AE2" t="n">
-        <v>906993.5996087389</v>
+        <v>1228516.147347789</v>
       </c>
       <c r="AF2" t="n">
         <v>4.663718876220386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.69791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>820431.4034355923</v>
+        <v>1111268.290478157</v>
       </c>
     </row>
     <row r="3">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>574.331905340048</v>
+        <v>790.4850419813632</v>
       </c>
       <c r="AB3" t="n">
-        <v>785.8262506216704</v>
+        <v>1081.576508177689</v>
       </c>
       <c r="AC3" t="n">
-        <v>710.8280961764071</v>
+        <v>978.3523642393728</v>
       </c>
       <c r="AD3" t="n">
-        <v>574331.905340048</v>
+        <v>790485.0419813632</v>
       </c>
       <c r="AE3" t="n">
-        <v>785826.2506216704</v>
+        <v>1081576.508177689</v>
       </c>
       <c r="AF3" t="n">
         <v>5.199770496972766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>710828.0961764072</v>
+        <v>978352.3642393728</v>
       </c>
     </row>
     <row r="4">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>550.030654235443</v>
+        <v>756.7155377004069</v>
       </c>
       <c r="AB4" t="n">
-        <v>752.5762067648159</v>
+        <v>1035.371582615101</v>
       </c>
       <c r="AC4" t="n">
-        <v>680.7513898385212</v>
+        <v>936.5571719234576</v>
       </c>
       <c r="AD4" t="n">
-        <v>550030.654235443</v>
+        <v>756715.5377004069</v>
       </c>
       <c r="AE4" t="n">
-        <v>752576.2067648158</v>
+        <v>1035371.582615101</v>
       </c>
       <c r="AF4" t="n">
         <v>5.354236396802324e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>680751.3898385211</v>
+        <v>936557.1719234576</v>
       </c>
     </row>
     <row r="5">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>550.6349753278618</v>
+        <v>757.3198587928256</v>
       </c>
       <c r="AB5" t="n">
-        <v>753.4030655442281</v>
+        <v>1036.198441394513</v>
       </c>
       <c r="AC5" t="n">
-        <v>681.4993343765299</v>
+        <v>937.3051164614666</v>
       </c>
       <c r="AD5" t="n">
-        <v>550634.9753278617</v>
+        <v>757319.8587928256</v>
       </c>
       <c r="AE5" t="n">
-        <v>753403.0655442281</v>
+        <v>1036198.441394513</v>
       </c>
       <c r="AF5" t="n">
         <v>5.356591325822876e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.39583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>681499.3343765299</v>
+        <v>937305.1164614665</v>
       </c>
     </row>
   </sheetData>
@@ -25687,28 +25687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>597.6105843144576</v>
+        <v>811.5805151127561</v>
       </c>
       <c r="AB2" t="n">
-        <v>817.6771661772933</v>
+        <v>1110.440265182652</v>
       </c>
       <c r="AC2" t="n">
-        <v>739.639205054442</v>
+        <v>1004.46140478632</v>
       </c>
       <c r="AD2" t="n">
-        <v>597610.5843144576</v>
+        <v>811580.5151127561</v>
       </c>
       <c r="AE2" t="n">
-        <v>817677.1661772933</v>
+        <v>1110440.265182652</v>
       </c>
       <c r="AF2" t="n">
         <v>5.522789964568547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.19791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>739639.2050544419</v>
+        <v>1004461.40478632</v>
       </c>
     </row>
     <row r="3">
@@ -25793,28 +25793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>531.5408309148099</v>
+        <v>736.2379486843799</v>
       </c>
       <c r="AB3" t="n">
-        <v>727.277614784091</v>
+        <v>1007.353241915905</v>
       </c>
       <c r="AC3" t="n">
-        <v>657.8672599696398</v>
+        <v>911.2128623366048</v>
       </c>
       <c r="AD3" t="n">
-        <v>531540.83091481</v>
+        <v>736237.9486843799</v>
       </c>
       <c r="AE3" t="n">
-        <v>727277.614784091</v>
+        <v>1007353.241915905</v>
       </c>
       <c r="AF3" t="n">
         <v>5.969937796153518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>657867.2599696398</v>
+        <v>911212.8623366047</v>
       </c>
     </row>
     <row r="4">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>532.077418394188</v>
+        <v>736.7745361637579</v>
       </c>
       <c r="AB4" t="n">
-        <v>728.0117974459449</v>
+        <v>1008.087424577758</v>
       </c>
       <c r="AC4" t="n">
-        <v>658.5313732686783</v>
+        <v>911.8769756356431</v>
       </c>
       <c r="AD4" t="n">
-        <v>532077.418394188</v>
+        <v>736774.5361637579</v>
       </c>
       <c r="AE4" t="n">
-        <v>728011.797445945</v>
+        <v>1008087.424577758</v>
       </c>
       <c r="AF4" t="n">
         <v>5.976206681415607e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.68229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>658531.3732686783</v>
+        <v>911876.9756356431</v>
       </c>
     </row>
   </sheetData>
@@ -26196,28 +26196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.980178508071</v>
+        <v>723.6534684896361</v>
       </c>
       <c r="AB2" t="n">
-        <v>703.2503554398838</v>
+        <v>990.1346009253732</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.1331285347735</v>
+        <v>895.6375442756952</v>
       </c>
       <c r="AD2" t="n">
-        <v>513980.178508071</v>
+        <v>723653.4684896361</v>
       </c>
       <c r="AE2" t="n">
-        <v>703250.3554398839</v>
+        <v>990134.6009253733</v>
       </c>
       <c r="AF2" t="n">
         <v>7.574767574815933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>636133.1285347735</v>
+        <v>895637.5442756952</v>
       </c>
     </row>
   </sheetData>
@@ -26493,28 +26493,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>880.6329365779335</v>
+        <v>1169.143496088107</v>
       </c>
       <c r="AB2" t="n">
-        <v>1204.92083460914</v>
+        <v>1599.673710318535</v>
       </c>
       <c r="AC2" t="n">
-        <v>1089.924881271056</v>
+        <v>1447.003096561886</v>
       </c>
       <c r="AD2" t="n">
-        <v>880632.9365779335</v>
+        <v>1169143.496088107</v>
       </c>
       <c r="AE2" t="n">
-        <v>1204920.83460914</v>
+        <v>1599673.710318535</v>
       </c>
       <c r="AF2" t="n">
         <v>3.182526200330124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1089924.881271056</v>
+        <v>1447003.096561886</v>
       </c>
     </row>
     <row r="3">
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>710.1555783434801</v>
+        <v>950.5981273113484</v>
       </c>
       <c r="AB3" t="n">
-        <v>971.6661921425166</v>
+        <v>1300.650295216969</v>
       </c>
       <c r="AC3" t="n">
-        <v>878.9317345065</v>
+        <v>1176.518056515615</v>
       </c>
       <c r="AD3" t="n">
-        <v>710155.5783434801</v>
+        <v>950598.1273113484</v>
       </c>
       <c r="AE3" t="n">
-        <v>971666.1921425166</v>
+        <v>1300650.295216969</v>
       </c>
       <c r="AF3" t="n">
         <v>3.792877504248758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.78645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>878931.7345065</v>
+        <v>1176518.056515615</v>
       </c>
     </row>
     <row r="4">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>665.3287642374269</v>
+        <v>886.4972884319371</v>
       </c>
       <c r="AB4" t="n">
-        <v>910.3321674631497</v>
+        <v>1212.944699532732</v>
       </c>
       <c r="AC4" t="n">
-        <v>823.4513430596874</v>
+        <v>1097.182959787906</v>
       </c>
       <c r="AD4" t="n">
-        <v>665328.7642374269</v>
+        <v>886497.2884319371</v>
       </c>
       <c r="AE4" t="n">
-        <v>910332.1674631498</v>
+        <v>1212944.699532732</v>
       </c>
       <c r="AF4" t="n">
         <v>4.016904966884343e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.13020833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>823451.3430596874</v>
+        <v>1097182.959787906</v>
       </c>
     </row>
     <row r="5">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>630.8202729895741</v>
+        <v>852.021951573008</v>
       </c>
       <c r="AB5" t="n">
-        <v>863.1161273306496</v>
+        <v>1165.774022697826</v>
       </c>
       <c r="AC5" t="n">
-        <v>780.7415355293047</v>
+        <v>1054.514186145662</v>
       </c>
       <c r="AD5" t="n">
-        <v>630820.272989574</v>
+        <v>852021.951573008</v>
       </c>
       <c r="AE5" t="n">
-        <v>863116.1273306496</v>
+        <v>1165774.022697826</v>
       </c>
       <c r="AF5" t="n">
         <v>4.133407598898002e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.85416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>780741.5355293046</v>
+        <v>1054514.186145662</v>
       </c>
     </row>
     <row r="6">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>619.8132409775518</v>
+        <v>831.3613299798449</v>
       </c>
       <c r="AB6" t="n">
-        <v>848.0558205358202</v>
+        <v>1137.505248751765</v>
       </c>
       <c r="AC6" t="n">
-        <v>767.1185632777004</v>
+        <v>1028.943344309539</v>
       </c>
       <c r="AD6" t="n">
-        <v>619813.2409775518</v>
+        <v>831361.3299798449</v>
       </c>
       <c r="AE6" t="n">
-        <v>848055.8205358202</v>
+        <v>1137505.248751765</v>
       </c>
       <c r="AF6" t="n">
         <v>4.208013824416905e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.07291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>767118.5632777005</v>
+        <v>1028943.344309539</v>
       </c>
     </row>
     <row r="7">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>601.0037110674282</v>
+        <v>812.6191198774258</v>
       </c>
       <c r="AB7" t="n">
-        <v>822.319791894895</v>
+        <v>1111.861330041681</v>
       </c>
       <c r="AC7" t="n">
-        <v>743.8387450895221</v>
+        <v>1005.74684520968</v>
       </c>
       <c r="AD7" t="n">
-        <v>601003.7110674282</v>
+        <v>812619.1198774257</v>
       </c>
       <c r="AE7" t="n">
-        <v>822319.791894895</v>
+        <v>1111861.330041681</v>
       </c>
       <c r="AF7" t="n">
         <v>4.252833236015947e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.60416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>743838.7450895221</v>
+        <v>1005746.84520968</v>
       </c>
     </row>
     <row r="8">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>598.3803941220912</v>
+        <v>809.9958029320886</v>
       </c>
       <c r="AB8" t="n">
-        <v>818.7304539177092</v>
+        <v>1108.271992064496</v>
       </c>
       <c r="AC8" t="n">
-        <v>740.5919684912113</v>
+        <v>1002.500068611369</v>
       </c>
       <c r="AD8" t="n">
-        <v>598380.3941220911</v>
+        <v>809995.8029320886</v>
       </c>
       <c r="AE8" t="n">
-        <v>818730.4539177092</v>
+        <v>1108271.992064496</v>
       </c>
       <c r="AF8" t="n">
         <v>4.261393465249925e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.52604166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>740591.9684912113</v>
+        <v>1002500.068611369</v>
       </c>
     </row>
     <row r="9">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>599.4438753404938</v>
+        <v>810.9577989240061</v>
       </c>
       <c r="AB9" t="n">
-        <v>820.185555838208</v>
+        <v>1109.588237420905</v>
       </c>
       <c r="AC9" t="n">
-        <v>741.9081975266661</v>
+        <v>1003.690693358325</v>
       </c>
       <c r="AD9" t="n">
-        <v>599443.8753404939</v>
+        <v>810957.7989240061</v>
       </c>
       <c r="AE9" t="n">
-        <v>820185.5558382079</v>
+        <v>1109588.237420905</v>
       </c>
       <c r="AF9" t="n">
         <v>4.263133349240572e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>741908.1975266661</v>
+        <v>1003690.693358325</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1059.823980699433</v>
+        <v>1381.054500029549</v>
       </c>
       <c r="AB2" t="n">
-        <v>1450.097926527111</v>
+        <v>1889.6196947649</v>
       </c>
       <c r="AC2" t="n">
-        <v>1311.702615644585</v>
+        <v>1709.277043194436</v>
       </c>
       <c r="AD2" t="n">
-        <v>1059823.980699433</v>
+        <v>1381054.500029549</v>
       </c>
       <c r="AE2" t="n">
-        <v>1450097.926527111</v>
+        <v>1889619.6947649</v>
       </c>
       <c r="AF2" t="n">
         <v>2.578268602389298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1311702.615644585</v>
+        <v>1709277.043194436</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>805.4971953858685</v>
+        <v>1068.275576539444</v>
       </c>
       <c r="AB3" t="n">
-        <v>1102.116798755199</v>
+        <v>1461.661772813507</v>
       </c>
       <c r="AC3" t="n">
-        <v>996.9323183126446</v>
+        <v>1322.162824671368</v>
       </c>
       <c r="AD3" t="n">
-        <v>805497.1953858685</v>
+        <v>1068275.576539444</v>
       </c>
       <c r="AE3" t="n">
-        <v>1102116.798755199</v>
+        <v>1461661.772813507</v>
       </c>
       <c r="AF3" t="n">
         <v>3.214361846448122e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>996932.3183126446</v>
+        <v>1322162.824671368</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>740.4732923148564</v>
+        <v>974.0436981194093</v>
       </c>
       <c r="AB4" t="n">
-        <v>1013.148225921296</v>
+        <v>1332.729559542142</v>
       </c>
       <c r="AC4" t="n">
-        <v>916.4547812018332</v>
+        <v>1205.535720877124</v>
       </c>
       <c r="AD4" t="n">
-        <v>740473.2923148564</v>
+        <v>974043.6981194094</v>
       </c>
       <c r="AE4" t="n">
-        <v>1013148.225921296</v>
+        <v>1332729.559542142</v>
       </c>
       <c r="AF4" t="n">
         <v>3.460875491204483e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.31770833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>916454.7812018332</v>
+        <v>1205535.720877124</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>703.0052361830907</v>
+        <v>936.6087963765673</v>
       </c>
       <c r="AB5" t="n">
-        <v>961.8827785478393</v>
+        <v>1281.509475466278</v>
       </c>
       <c r="AC5" t="n">
-        <v>870.0820361741913</v>
+        <v>1159.204009737621</v>
       </c>
       <c r="AD5" t="n">
-        <v>703005.2361830907</v>
+        <v>936608.7963765673</v>
       </c>
       <c r="AE5" t="n">
-        <v>961882.7785478393</v>
+        <v>1281509.475466278</v>
       </c>
       <c r="AF5" t="n">
         <v>3.585893125330924e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.67708333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>870082.0361741913</v>
+        <v>1159204.009737621</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>681.3336265889274</v>
+        <v>905.2350234082247</v>
       </c>
       <c r="AB6" t="n">
-        <v>932.2307262171664</v>
+        <v>1238.582495177814</v>
       </c>
       <c r="AC6" t="n">
-        <v>843.2599341010412</v>
+        <v>1120.373920199493</v>
       </c>
       <c r="AD6" t="n">
-        <v>681333.6265889273</v>
+        <v>905235.0234082247</v>
       </c>
       <c r="AE6" t="n">
-        <v>932230.7262171664</v>
+        <v>1238582.495177814</v>
       </c>
       <c r="AF6" t="n">
         <v>3.665632743073542e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>843259.9341010412</v>
+        <v>1120373.920199493</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>660.9502855608473</v>
+        <v>884.8175169613638</v>
       </c>
       <c r="AB7" t="n">
-        <v>904.3413397730071</v>
+        <v>1210.646362100407</v>
       </c>
       <c r="AC7" t="n">
-        <v>818.0322715561127</v>
+        <v>1095.103972454384</v>
       </c>
       <c r="AD7" t="n">
-        <v>660950.2855608473</v>
+        <v>884817.5169613638</v>
       </c>
       <c r="AE7" t="n">
-        <v>904341.3397730071</v>
+        <v>1210646.362100407</v>
       </c>
       <c r="AF7" t="n">
         <v>3.729839485751156e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.90625</v>
       </c>
       <c r="AH7" t="n">
-        <v>818032.2715561127</v>
+        <v>1095103.972454384</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>653.6180865738888</v>
+        <v>867.8173200190072</v>
       </c>
       <c r="AB8" t="n">
-        <v>894.3091016452607</v>
+        <v>1187.385942648117</v>
       </c>
       <c r="AC8" t="n">
-        <v>808.9574961549437</v>
+        <v>1074.063494788418</v>
       </c>
       <c r="AD8" t="n">
-        <v>653618.0865738888</v>
+        <v>867817.3200190072</v>
       </c>
       <c r="AE8" t="n">
-        <v>894309.1016452607</v>
+        <v>1187385.942648117</v>
       </c>
       <c r="AF8" t="n">
         <v>3.762728933763293e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.515625</v>
       </c>
       <c r="AH8" t="n">
-        <v>808957.4961549437</v>
+        <v>1074063.494788418</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>644.0540471806661</v>
+        <v>858.1517953992992</v>
       </c>
       <c r="AB9" t="n">
-        <v>881.2231610118143</v>
+        <v>1174.161145450582</v>
       </c>
       <c r="AC9" t="n">
-        <v>797.1204593293205</v>
+        <v>1062.100853674295</v>
       </c>
       <c r="AD9" t="n">
-        <v>644054.0471806661</v>
+        <v>858151.7953992992</v>
       </c>
       <c r="AE9" t="n">
-        <v>881223.1610118144</v>
+        <v>1174161.145450582</v>
       </c>
       <c r="AF9" t="n">
         <v>3.803730693044198e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>797120.4593293205</v>
+        <v>1062100.853674295</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>628.9649418010492</v>
+        <v>852.7980077827852</v>
       </c>
       <c r="AB10" t="n">
-        <v>860.5775813470748</v>
+        <v>1166.835857041227</v>
       </c>
       <c r="AC10" t="n">
-        <v>778.4452648115307</v>
+        <v>1055.474680509623</v>
       </c>
       <c r="AD10" t="n">
-        <v>628964.9418010493</v>
+        <v>852798.0077827852</v>
       </c>
       <c r="AE10" t="n">
-        <v>860577.5813470748</v>
+        <v>1166835.857041227</v>
       </c>
       <c r="AF10" t="n">
         <v>3.81492442487242e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>43</v>
+        <v>42.91666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>778445.2648115307</v>
+        <v>1055474.680509623</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>628.0126029701588</v>
+        <v>842.1776709964964</v>
       </c>
       <c r="AB11" t="n">
-        <v>859.2745493444265</v>
+        <v>1152.304643714035</v>
       </c>
       <c r="AC11" t="n">
-        <v>777.2665923543982</v>
+        <v>1042.330305787692</v>
       </c>
       <c r="AD11" t="n">
-        <v>628012.6029701588</v>
+        <v>842177.6709964965</v>
       </c>
       <c r="AE11" t="n">
-        <v>859274.5493444265</v>
+        <v>1152304.643714035</v>
       </c>
       <c r="AF11" t="n">
         <v>3.827124334842505e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>43</v>
+        <v>42.78645833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>777266.5923543982</v>
+        <v>1042330.305787692</v>
       </c>
     </row>
     <row r="12">
@@ -28592,28 +28592,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>628.7469021495817</v>
+        <v>842.9119701759194</v>
       </c>
       <c r="AB12" t="n">
-        <v>860.2792498767064</v>
+        <v>1153.309344246315</v>
       </c>
       <c r="AC12" t="n">
-        <v>778.1754056779833</v>
+        <v>1043.239119111277</v>
       </c>
       <c r="AD12" t="n">
-        <v>628746.9021495817</v>
+        <v>842911.9701759194</v>
       </c>
       <c r="AE12" t="n">
-        <v>860279.2498767064</v>
+        <v>1153309.344246315</v>
       </c>
       <c r="AF12" t="n">
         <v>3.827438765511837e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>43</v>
+        <v>42.78645833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>778175.4056779833</v>
+        <v>1043239.119111277</v>
       </c>
     </row>
   </sheetData>
@@ -28889,28 +28889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>515.5703310808614</v>
+        <v>741.2095687679478</v>
       </c>
       <c r="AB2" t="n">
-        <v>705.4260723425558</v>
+        <v>1014.155631846641</v>
       </c>
       <c r="AC2" t="n">
-        <v>638.1011980698923</v>
+        <v>917.3660417195654</v>
       </c>
       <c r="AD2" t="n">
-        <v>515570.3310808614</v>
+        <v>741209.5687679477</v>
       </c>
       <c r="AE2" t="n">
-        <v>705426.0723425559</v>
+        <v>1014155.631846641</v>
       </c>
       <c r="AF2" t="n">
         <v>8.456584771203372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.97916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>638101.1980698924</v>
+        <v>917366.0417195654</v>
       </c>
     </row>
   </sheetData>
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>704.7012597264639</v>
+        <v>940.7116364316228</v>
       </c>
       <c r="AB2" t="n">
-        <v>964.2033527831605</v>
+        <v>1287.123162234134</v>
       </c>
       <c r="AC2" t="n">
-        <v>872.1811380614398</v>
+        <v>1164.281934119211</v>
       </c>
       <c r="AD2" t="n">
-        <v>704701.2597264639</v>
+        <v>940711.6364316228</v>
       </c>
       <c r="AE2" t="n">
-        <v>964203.3527831605</v>
+        <v>1287123.162234134</v>
       </c>
       <c r="AF2" t="n">
         <v>4.329305044243963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.02604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>872181.1380614399</v>
+        <v>1164281.934119211</v>
       </c>
     </row>
     <row r="3">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>601.3727843485298</v>
+        <v>818.4286144950978</v>
       </c>
       <c r="AB3" t="n">
-        <v>822.8247742404621</v>
+        <v>1119.810136874394</v>
       </c>
       <c r="AC3" t="n">
-        <v>744.2955326287755</v>
+        <v>1012.9370290745</v>
       </c>
       <c r="AD3" t="n">
-        <v>601372.7843485298</v>
+        <v>818428.6144950978</v>
       </c>
       <c r="AE3" t="n">
-        <v>822824.7742404621</v>
+        <v>1119810.136874394</v>
       </c>
       <c r="AF3" t="n">
         <v>4.878411167007712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.40104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>744295.5326287755</v>
+        <v>1012937.0290745</v>
       </c>
     </row>
     <row r="4">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>562.6766926397376</v>
+        <v>770.3909001522763</v>
       </c>
       <c r="AB4" t="n">
-        <v>769.8790744134111</v>
+        <v>1054.08281683616</v>
       </c>
       <c r="AC4" t="n">
-        <v>696.4028960834618</v>
+        <v>953.4826322118416</v>
       </c>
       <c r="AD4" t="n">
-        <v>562676.6926397375</v>
+        <v>770390.9001522764</v>
       </c>
       <c r="AE4" t="n">
-        <v>769879.0744134111</v>
+        <v>1054082.81683616</v>
       </c>
       <c r="AF4" t="n">
         <v>5.073451133363512e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.68229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>696402.8960834618</v>
+        <v>953482.6322118416</v>
       </c>
     </row>
     <row r="5">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>558.4826551103101</v>
+        <v>766.0953773963638</v>
       </c>
       <c r="AB5" t="n">
-        <v>764.1406072377715</v>
+        <v>1048.205493096431</v>
       </c>
       <c r="AC5" t="n">
-        <v>691.212100161076</v>
+        <v>948.1662320009567</v>
       </c>
       <c r="AD5" t="n">
-        <v>558482.6551103102</v>
+        <v>766095.3773963638</v>
       </c>
       <c r="AE5" t="n">
-        <v>764140.6072377715</v>
+        <v>1048205.493096431</v>
       </c>
       <c r="AF5" t="n">
         <v>5.125600412214296e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>691212.1001610761</v>
+        <v>948166.2320009567</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>812.0959955310478</v>
+        <v>1070.012270349642</v>
       </c>
       <c r="AB2" t="n">
-        <v>1111.14556823235</v>
+        <v>1464.037993902144</v>
       </c>
       <c r="AC2" t="n">
-        <v>1005.099394702853</v>
+        <v>1324.312262554353</v>
       </c>
       <c r="AD2" t="n">
-        <v>812095.9955310478</v>
+        <v>1070012.270349642</v>
       </c>
       <c r="AE2" t="n">
-        <v>1111145.56823235</v>
+        <v>1464037.993902144</v>
       </c>
       <c r="AF2" t="n">
         <v>3.569698320605309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.03645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1005099.394702853</v>
+        <v>1324312.262554353</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>668.7739499755339</v>
+        <v>897.9570501092004</v>
       </c>
       <c r="AB3" t="n">
-        <v>915.0460225808956</v>
+        <v>1228.624451028568</v>
       </c>
       <c r="AC3" t="n">
-        <v>827.7153144609327</v>
+        <v>1111.366257807648</v>
       </c>
       <c r="AD3" t="n">
-        <v>668773.9499755339</v>
+        <v>897957.0501092004</v>
       </c>
       <c r="AE3" t="n">
-        <v>915046.0225808956</v>
+        <v>1228624.451028568</v>
       </c>
       <c r="AF3" t="n">
         <v>4.158180122587255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.38020833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>827715.3144609327</v>
+        <v>1111366.257807648</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>627.7457068424737</v>
+        <v>837.8872419154574</v>
       </c>
       <c r="AB4" t="n">
-        <v>858.9093702879018</v>
+        <v>1146.434289364986</v>
       </c>
       <c r="AC4" t="n">
-        <v>776.9362654744958</v>
+        <v>1037.020209818621</v>
       </c>
       <c r="AD4" t="n">
-        <v>627745.7068424737</v>
+        <v>837887.2419154574</v>
       </c>
       <c r="AE4" t="n">
-        <v>858909.3702879017</v>
+        <v>1146434.289364986</v>
       </c>
       <c r="AF4" t="n">
         <v>4.370140217889587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>776936.2654744958</v>
+        <v>1037020.209818622</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>603.6340891940902</v>
+        <v>813.7414588482932</v>
       </c>
       <c r="AB5" t="n">
-        <v>825.9187912918869</v>
+        <v>1113.396963735723</v>
       </c>
       <c r="AC5" t="n">
-        <v>747.0942610352924</v>
+        <v>1007.135920179238</v>
       </c>
       <c r="AD5" t="n">
-        <v>603634.0891940902</v>
+        <v>813741.4588482932</v>
       </c>
       <c r="AE5" t="n">
-        <v>825918.7912918869</v>
+        <v>1113396.963735723</v>
       </c>
       <c r="AF5" t="n">
         <v>4.483600338785174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>747094.2610352924</v>
+        <v>1007135.920179238</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>583.5673512240767</v>
+        <v>793.6405554594988</v>
       </c>
       <c r="AB6" t="n">
-        <v>798.4625951193153</v>
+        <v>1085.894020929904</v>
       </c>
       <c r="AC6" t="n">
-        <v>722.2584456904177</v>
+        <v>982.2578196341835</v>
       </c>
       <c r="AD6" t="n">
-        <v>583567.3512240767</v>
+        <v>793640.5554594989</v>
       </c>
       <c r="AE6" t="n">
-        <v>798462.5951193153</v>
+        <v>1085894.020929904</v>
       </c>
       <c r="AF6" t="n">
         <v>4.5462552097236e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>722258.4456904177</v>
+        <v>982257.8196341835</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>582.2416686322005</v>
+        <v>792.3148728676226</v>
       </c>
       <c r="AB7" t="n">
-        <v>796.6487377121221</v>
+        <v>1084.080163522711</v>
       </c>
       <c r="AC7" t="n">
-        <v>720.617700288402</v>
+        <v>980.6170742321681</v>
       </c>
       <c r="AD7" t="n">
-        <v>582241.6686322005</v>
+        <v>792314.8728676226</v>
       </c>
       <c r="AE7" t="n">
-        <v>796648.737712122</v>
+        <v>1084080.163522711</v>
       </c>
       <c r="AF7" t="n">
         <v>4.559956333983184e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.29166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>720617.700288402</v>
+        <v>980617.074232168</v>
       </c>
     </row>
   </sheetData>
